--- a/data/trans_bre/P57_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P57_R-Estudios-trans_bre.xlsx
@@ -592,13 +592,13 @@
         <v>8.765269054269664</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>8.28678670710366</v>
+        <v>8.286786707103666</v>
       </c>
       <c r="E4" s="6" t="n">
         <v>0.2897681954403108</v>
       </c>
       <c r="F4" s="6" t="n">
-        <v>0.2930102569133349</v>
+        <v>0.2930102569133352</v>
       </c>
     </row>
     <row r="5">
@@ -609,16 +609,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.112766253048385</v>
+        <v>4.396405864555537</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>3.944759335998789</v>
+        <v>3.703319443490769</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>0.1284061032804876</v>
+        <v>0.1338366000032639</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>0.1286252623056522</v>
+        <v>0.1166448254191522</v>
       </c>
     </row>
     <row r="6">
@@ -629,16 +629,16 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>13.56111638930599</v>
+        <v>13.33592886003771</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>12.42751013981419</v>
+        <v>12.47631817807149</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>0.4831970237587106</v>
+        <v>0.4769942083370334</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>0.4926142856516973</v>
+        <v>0.4909396605932405</v>
       </c>
     </row>
     <row r="7">
@@ -656,13 +656,13 @@
         <v>3.380410010804042</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>2.035427738356391</v>
+        <v>2.035427738356389</v>
       </c>
       <c r="E7" s="6" t="n">
         <v>0.208885884337754</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>0.1848404435009676</v>
+        <v>0.1848404435009675</v>
       </c>
     </row>
     <row r="8">
@@ -673,16 +673,16 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.7953349637301205</v>
+        <v>1.030133344248334</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-0.00570699958644868</v>
+        <v>0.2204419451996686</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.04589028227408066</v>
+        <v>0.05812318053450421</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.0009100644684854719</v>
+        <v>0.01546103584601109</v>
       </c>
     </row>
     <row r="9">
@@ -693,16 +693,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.634137094233425</v>
+        <v>6.018117778871893</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>3.736082359842596</v>
+        <v>3.877638416152752</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.3744832690453515</v>
+        <v>0.3978385144057842</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.3737153649354008</v>
+        <v>0.3875648420566472</v>
       </c>
     </row>
     <row r="10">
@@ -726,7 +726,7 @@
         <v>-0.1903349811793535</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>-0.06412043453211658</v>
+        <v>-0.06412043453211656</v>
       </c>
     </row>
     <row r="11">
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-5.991917545818978</v>
+        <v>-6.343622148030874</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-3.824290185285372</v>
+        <v>-3.434311208887511</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>-0.4604531516405587</v>
+        <v>-0.4796260647911422</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>-0.3613107161141569</v>
+        <v>-0.3167734377743943</v>
       </c>
     </row>
     <row r="12">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.021961775942734</v>
+        <v>1.6235883929182</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.107130181072004</v>
+        <v>2.280730300119426</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>0.2285451558078218</v>
+        <v>0.1719577459887486</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>0.2773114408516968</v>
+        <v>0.3159546437448235</v>
       </c>
     </row>
     <row r="13">
@@ -801,16 +801,16 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>2.813830829592185</v>
+        <v>2.818702784242384</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>2.24313214135158</v>
+        <v>2.380450554936792</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.147397349067217</v>
+        <v>0.141157358712119</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.1577169599793842</v>
+        <v>0.1612713088308013</v>
       </c>
     </row>
     <row r="15">
@@ -821,16 +821,16 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>6.973346604840938</v>
+        <v>6.981742701469734</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>5.386583847204902</v>
+        <v>5.413715818945328</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.4017016490945447</v>
+        <v>0.3956226028028784</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.4298923512695817</v>
+        <v>0.4235428689203966</v>
       </c>
     </row>
     <row r="16">
